--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Il1a</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H2">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N2">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O2">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P2">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q2">
-        <v>0.88665233202696</v>
+        <v>0.9417991846290001</v>
       </c>
       <c r="R2">
-        <v>0.88665233202696</v>
+        <v>5.650795107774001</v>
       </c>
       <c r="S2">
-        <v>0.008329929130296074</v>
+        <v>0.007124022454696791</v>
       </c>
       <c r="T2">
-        <v>0.008329929130296074</v>
+        <v>0.00479887418310109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H3">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N3">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P3">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q3">
-        <v>5.057881444643873</v>
+        <v>5.410019340396</v>
       </c>
       <c r="R3">
-        <v>5.057881444643873</v>
+        <v>48.690174063564</v>
       </c>
       <c r="S3">
-        <v>0.04751782909881515</v>
+        <v>0.0409228420350644</v>
       </c>
       <c r="T3">
-        <v>0.04751782909881515</v>
+        <v>0.04134958263888985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H4">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N4">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O4">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P4">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q4">
-        <v>23.86436052876838</v>
+        <v>31.57375707804</v>
       </c>
       <c r="R4">
-        <v>23.86436052876838</v>
+        <v>284.16381370236</v>
       </c>
       <c r="S4">
-        <v>0.2242011042705193</v>
+        <v>0.2388323945000075</v>
       </c>
       <c r="T4">
-        <v>0.2242011042705193</v>
+        <v>0.2413229224099381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H5">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N5">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O5">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P5">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q5">
-        <v>17.50459692492979</v>
+        <v>20.953904421731</v>
       </c>
       <c r="R5">
-        <v>17.50459692492979</v>
+        <v>188.585139795579</v>
       </c>
       <c r="S5">
-        <v>0.1644523412076585</v>
+        <v>0.1585009713857269</v>
       </c>
       <c r="T5">
-        <v>0.1644523412076585</v>
+        <v>0.1601538086979084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H6">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N6">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O6">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P6">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q6">
-        <v>0.3635546642216287</v>
+        <v>0.473082137782</v>
       </c>
       <c r="R6">
-        <v>0.3635546642216287</v>
+        <v>4.257739240038</v>
       </c>
       <c r="S6">
-        <v>0.00341552655823012</v>
+        <v>0.003578520588550477</v>
       </c>
       <c r="T6">
-        <v>0.00341552655823012</v>
+        <v>0.003615837157019778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H7">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N7">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O7">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P7">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q7">
-        <v>0.8987887557562417</v>
+        <v>0.9244330498065</v>
       </c>
       <c r="R7">
-        <v>0.8987887557562417</v>
+        <v>5.546598298839</v>
       </c>
       <c r="S7">
-        <v>0.008443948510732427</v>
+        <v>0.006992660337967504</v>
       </c>
       <c r="T7">
-        <v>0.008443948510732427</v>
+        <v>0.004710386215156227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H8">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N8">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O8">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P8">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q8">
-        <v>1.05622393506194</v>
+        <v>1.107000252047</v>
       </c>
       <c r="R8">
-        <v>1.05622393506194</v>
+        <v>6.642001512282001</v>
       </c>
       <c r="S8">
-        <v>0.009923021918495192</v>
+        <v>0.008373647781447653</v>
       </c>
       <c r="T8">
-        <v>0.009923021918495192</v>
+        <v>0.005640645072683331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H9">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N9">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P9">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q9">
-        <v>6.025197531850716</v>
+        <v>6.358991249028</v>
       </c>
       <c r="R9">
-        <v>6.025197531850716</v>
+        <v>57.230921241252</v>
       </c>
       <c r="S9">
-        <v>0.05660557878600966</v>
+        <v>0.04810112090417807</v>
       </c>
       <c r="T9">
-        <v>0.05660557878600966</v>
+        <v>0.04860271611014501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H10">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N10">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O10">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P10">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q10">
-        <v>28.42840183796657</v>
+        <v>37.11211223572001</v>
       </c>
       <c r="R10">
-        <v>28.42840183796657</v>
+        <v>334.00901012148</v>
       </c>
       <c r="S10">
-        <v>0.2670793997197085</v>
+        <v>0.2807260031899965</v>
       </c>
       <c r="T10">
-        <v>0.2670793997197085</v>
+        <v>0.283653394792177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H11">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N11">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O11">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P11">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q11">
-        <v>20.85233814640246</v>
+        <v>24.62943040809967</v>
       </c>
       <c r="R11">
-        <v>20.85233814640246</v>
+        <v>221.664873672897</v>
       </c>
       <c r="S11">
-        <v>0.19590372989085</v>
+        <v>0.1863036389682293</v>
       </c>
       <c r="T11">
-        <v>0.19590372989085</v>
+        <v>0.1882464006004752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H12">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N12">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O12">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P12">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q12">
-        <v>0.4330842249931791</v>
+        <v>0.5560655119593333</v>
       </c>
       <c r="R12">
-        <v>0.4330842249931791</v>
+        <v>5.004589607634</v>
       </c>
       <c r="S12">
-        <v>0.004068743487534963</v>
+        <v>0.004206229160244249</v>
       </c>
       <c r="T12">
-        <v>0.004068743487534963</v>
+        <v>0.004250091430859102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H13">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N13">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O13">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P13">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q13">
-        <v>1.070681440857494</v>
+        <v>1.0865879221795</v>
       </c>
       <c r="R13">
-        <v>1.070681440857494</v>
+        <v>6.519527533077</v>
       </c>
       <c r="S13">
-        <v>0.01005884742115021</v>
+        <v>0.008219243425718642</v>
       </c>
       <c r="T13">
-        <v>0.01005884742115021</v>
+        <v>0.005536635423474857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.16325</v>
+      </c>
+      <c r="I14">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J14">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.308173</v>
+      </c>
+      <c r="N14">
+        <v>0.6163460000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01562452111805829</v>
+      </c>
+      <c r="P14">
+        <v>0.01052496837195314</v>
+      </c>
+      <c r="Q14">
+        <v>0.01676974741666667</v>
+      </c>
+      <c r="R14">
+        <v>0.1006184845</v>
+      </c>
+      <c r="S14">
+        <v>0.0001268508819138429</v>
+      </c>
+      <c r="T14">
+        <v>8.544911616871857E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.16325</v>
+      </c>
+      <c r="I15">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J15">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.770252</v>
+      </c>
+      <c r="N15">
+        <v>5.310756</v>
+      </c>
+      <c r="O15">
+        <v>0.08975263815546759</v>
+      </c>
+      <c r="P15">
+        <v>0.09068857254068391</v>
+      </c>
+      <c r="Q15">
+        <v>0.096331213</v>
+      </c>
+      <c r="R15">
+        <v>0.866980917</v>
+      </c>
+      <c r="S15">
+        <v>0.0007286752162251211</v>
+      </c>
+      <c r="T15">
+        <v>0.0007362737916490398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.16325</v>
+      </c>
+      <c r="I16">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J16">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.33148</v>
+      </c>
+      <c r="N16">
+        <v>30.99444</v>
+      </c>
+      <c r="O16">
+        <v>0.5238110653457533</v>
+      </c>
+      <c r="P16">
+        <v>0.5292733313859411</v>
+      </c>
+      <c r="Q16">
+        <v>0.5622047033333334</v>
+      </c>
+      <c r="R16">
+        <v>5.05984233</v>
+      </c>
+      <c r="S16">
+        <v>0.004252667655749303</v>
+      </c>
+      <c r="T16">
+        <v>0.004297014183825931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.16325</v>
+      </c>
+      <c r="I17">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J17">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.856480333333334</v>
+      </c>
+      <c r="N17">
+        <v>20.569441</v>
+      </c>
+      <c r="O17">
+        <v>0.3476268906222089</v>
+      </c>
+      <c r="P17">
+        <v>0.3512519201126578</v>
+      </c>
+      <c r="Q17">
+        <v>0.3731068048055556</v>
+      </c>
+      <c r="R17">
+        <v>3.35796124325</v>
+      </c>
+      <c r="S17">
+        <v>0.002822280268252745</v>
+      </c>
+      <c r="T17">
+        <v>0.002851710814274129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.16325</v>
+      </c>
+      <c r="I18">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J18">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1548006666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.464402</v>
+      </c>
+      <c r="O18">
+        <v>0.007848469156684183</v>
+      </c>
+      <c r="P18">
+        <v>0.007930312457405064</v>
+      </c>
+      <c r="Q18">
+        <v>0.008423736277777778</v>
+      </c>
+      <c r="R18">
+        <v>0.07581362649999999</v>
+      </c>
+      <c r="S18">
+        <v>6.371940788945655E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.438386952618372E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.16325</v>
+      </c>
+      <c r="I19">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J19">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3024905</v>
+      </c>
+      <c r="N19">
+        <v>0.604981</v>
+      </c>
+      <c r="O19">
+        <v>0.01533641560182758</v>
+      </c>
+      <c r="P19">
+        <v>0.01033089513135898</v>
+      </c>
+      <c r="Q19">
+        <v>0.01646052470833333</v>
+      </c>
+      <c r="R19">
+        <v>0.09876314825</v>
+      </c>
+      <c r="S19">
+        <v>0.0001245118381414313</v>
+      </c>
+      <c r="T19">
+        <v>8.387349272789557E-05</v>
       </c>
     </row>
   </sheetData>
